--- a/GunfireDungeon_Godot/excel/AiAttackAttr.xlsx
+++ b/GunfireDungeon_Godot/excel/AiAttackAttr.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12400"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1093,23 +1106,25 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8173076923077" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.8166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.8173076923077" style="2" customWidth="1"/>
-    <col min="6" max="8" width="22.2403846153846" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.9423076923077" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.4423076923077" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.8166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.2416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.2416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.9416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.4416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:10">
@@ -1512,7 +1527,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1529,7 +1544,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
